--- a/source/11_flask/data/ex3_xlwing.xlsx
+++ b/source/11_flask/data/ex3_xlwing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_\testSourc\11_Flask\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\11_flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E12989-CED5-4330-B161-CD3CFB9CFE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9578" windowHeight="5805"/>
+    <workbookView xWindow="15195" yWindow="2775" windowWidth="10830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,20 +369,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6875" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2010</v>
       </c>
@@ -405,8 +406,11 @@
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>112812.78080927726</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2012</v>
       </c>
@@ -416,8 +420,11 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>145127.13305043406</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2024</v>
       </c>
@@ -426,10 +433,28 @@
       </c>
       <c r="D4">
         <v>10</v>
+      </c>
+      <c r="E4">
+        <v>178526.19402372456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>147872.61162253248</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>